--- a/Excel/CSRPrint.xlsx
+++ b/Excel/CSRPrint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20344"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyEclipse\PCMS\WebRoot\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hawile\IdeaProjects\Keydom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639AF3E6-8B51-4B5E-957A-C89CEFDE0E27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B4D55B-09DC-4D74-A9BA-78D44FFFF5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户账号清单" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,108 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">客户账号清单!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>客户账号清单
+Customer Account Number List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计人:
+Statistician</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">审核人:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reviewer</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期:
+Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPN account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opening Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP访问目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP access directory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>VPN账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FTP账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>客户名称</t>
-  </si>
-  <si>
-    <t>开通时间</t>
-  </si>
-  <si>
-    <t>FTP访问目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-  </si>
-  <si>
-    <t>客户账号清单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计人：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -81,7 +137,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <family val="2"/>
@@ -97,8 +153,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -106,8 +162,35 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="24"/>
       <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -123,12 +206,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,8 +223,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -161,12 +244,23 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -178,34 +272,37 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="标题 3" xfId="1" builtinId="18"/>
+    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -238,7 +335,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -250,7 +347,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -297,23 +394,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -349,23 +429,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,178 +584,665 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:I544"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="40.125" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="37.75" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="56.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"宋体,加粗"&amp;18四川科道芯国智能技术股份有限公司&amp;R&amp;G</oddHeader>
-    <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
+    <oddFooter xml:space="preserve">&amp;L部门：安全策略部&amp;C&amp;"-,倾斜"密级：3  机密&amp;R文件编号：KD-LJ01-BD00028 </oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
